--- a/结果/KNN分类/标准差/KNN_AE_biaozhuncha.xlsx
+++ b/结果/KNN分类/标准差/KNN_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3009F9-56DC-461B-A2BB-3A5F0C92123C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E9A50-1586-4170-96D4-AF20559CB223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10548" yWindow="876" windowWidth="19668" windowHeight="11148" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AE_biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="AE_biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="AE_biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="AE_bzc_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1401,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59B205-1512-4356-B031-5BCDF23C7FCC}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -1587,4 +1588,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8958516-766C-47AF-AA11-3D62FF79E201}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/KNN分类/标准差/KNN_AE_biaozhuncha.xlsx
+++ b/结果/KNN分类/标准差/KNN_AE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E9A50-1586-4170-96D4-AF20559CB223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D697A166-C9DE-4EDD-A86A-6200BD098E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="1452" yWindow="1440" windowWidth="19668" windowHeight="9792" tabRatio="677" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1592,15 +1604,193 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8958516-766C-47AF-AA11-3D62FF79E201}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99.375</v>
+      </c>
+      <c r="B6">
+        <v>98.648600000000002</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>99.375</v>
+      </c>
+      <c r="B17">
+        <v>98.701300000000003</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99.375</v>
+      </c>
+      <c r="B28">
+        <v>98.863600000000005</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/KNN分类/标准差/KNN_AE_biaozhuncha.xlsx
+++ b/结果/KNN分类/标准差/KNN_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D697A166-C9DE-4EDD-A86A-6200BD098E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D5796-3F5F-47B5-87DF-9B904CC477D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="1440" windowWidth="19668" windowHeight="9792" tabRatio="677" firstSheet="2" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="13188" yWindow="276" windowWidth="13620" windowHeight="12360" tabRatio="677" firstSheet="4" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>100</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -644,10 +655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2907435-2FF9-4A5D-899D-AE825C5F9E34}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -826,6 +837,20 @@
       </c>
       <c r="C36">
         <v>89.873400000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>84.75</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>84.694326666666669</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>84.785993333333323</v>
       </c>
     </row>
   </sheetData>
@@ -836,10 +861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FEC544-E7E9-4275-88D6-827013C4E56B}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1043,20 @@
       </c>
       <c r="C36">
         <v>92.045500000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>93.916666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>92.478173333333345</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>95.265806666666677</v>
       </c>
     </row>
   </sheetData>
@@ -1028,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A003BBD-D7A9-4C55-87C8-AEB88527A965}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1248,20 @@
         <v>97.7273</v>
       </c>
       <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.208333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.406326666666658</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1220,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C163547-D665-4136-B338-5569DDB55E06}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1401,6 +1454,20 @@
         <v>97.468400000000003</v>
       </c>
       <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.375</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.721133333333327</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1412,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59B205-1512-4356-B031-5BCDF23C7FCC}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1593,6 +1660,20 @@
         <v>100</v>
       </c>
       <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:C38" si="0">AVERAGE(A2:A37)</f>
+        <v>100</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1604,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8958516-766C-47AF-AA11-3D62FF79E201}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1788,6 +1869,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.875</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.747566666666657</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
